--- a/biology/Zoologie/Coleonyx/Coleonyx.xlsx
+++ b/biology/Zoologie/Coleonyx/Coleonyx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coleonyx est un genre de gecko de la famille des Eublepharidae[1]. Les espèces de ce genre sont parfois appelées Geckos à paupières
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coleonyx est un genre de gecko de la famille des Eublepharidae. Les espèces de ce genre sont parfois appelées Geckos à paupières
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les huit espèces de ce genre se rencontrent dans le sud de l'Amérique du Nord et en Amérique centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les huit espèces de ce genre se rencontrent dans le sud de l'Amérique du Nord et en Amérique centrale.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des geckos de taille moyenne. Ils ont en général une queue relativement épaisse, et des motifs en rayure et/ou en bandes irrégulières. Ils sont par ailleurs terrestres et nocturnes, et vivent dans des milieux plutôt arides.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 septembre 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 septembre 2014) :
 Coleonyx brevis Stejneger, 1893
 Coleonyx elegans Gray, 1845
 Coleonyx fasciatus (Boulenger, 1885)
@@ -611,7 +629,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 1845 : Description of a new genus of night lizards from Belize. Annals and Magazine of Natural History, sér. 1, vol. 16, p. 162-163 (texte intégral).</t>
         </is>
